--- a/data/data7.xlsx
+++ b/data/data7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dbp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990F54A9-5EC9-49E2-873B-5121FDA8F8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7DD791-AA8D-4137-8354-CC0706844E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5DA2C33C-E7FF-4F7E-A4E2-8BCB9D60AAD7}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5344" uniqueCount="5344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="5326">
   <si>
     <t>가갑다</t>
   </si>
@@ -232,9 +232,6 @@
     <t>간피다</t>
   </si>
   <si>
-    <t>갇ㄱ다</t>
-  </si>
-  <si>
     <t>갇지다</t>
   </si>
   <si>
@@ -388,9 +385,6 @@
     <t>값지다</t>
   </si>
   <si>
-    <t>갓ㄱ다</t>
-  </si>
-  <si>
     <t>갓갈다</t>
   </si>
   <si>
@@ -814,9 +808,6 @@
     <t>겁주다</t>
   </si>
   <si>
-    <t>것ㄱ다</t>
-  </si>
-  <si>
     <t>것곶다</t>
   </si>
   <si>
@@ -1009,9 +1000,6 @@
     <t>겹치다</t>
   </si>
   <si>
-    <t>겻ㄱ다</t>
-  </si>
-  <si>
     <t>겻구다</t>
   </si>
   <si>
@@ -1876,9 +1864,6 @@
     <t>김새다</t>
   </si>
   <si>
-    <t>깃ㄱ다</t>
-  </si>
-  <si>
     <t>깃기다</t>
   </si>
   <si>
@@ -2602,9 +2587,6 @@
     <t>낚이다</t>
   </si>
   <si>
-    <t>낛ㄱ다</t>
-  </si>
-  <si>
     <t>난바다</t>
   </si>
   <si>
@@ -2722,9 +2704,6 @@
     <t>납시다</t>
   </si>
   <si>
-    <t>낫ㄱ다</t>
-  </si>
-  <si>
     <t>낫갑다</t>
   </si>
   <si>
@@ -3292,9 +3271,6 @@
     <t>놉살다</t>
   </si>
   <si>
-    <t>놋ㅅ다</t>
-  </si>
-  <si>
     <t>놋도다</t>
   </si>
   <si>
@@ -3955,9 +3931,6 @@
     <t>닳키다</t>
   </si>
   <si>
-    <t>담ㄱ다</t>
-  </si>
-  <si>
     <t>담그다</t>
   </si>
   <si>
@@ -3997,9 +3970,6 @@
     <t>답지다</t>
   </si>
   <si>
-    <t>닷ㄱ다</t>
-  </si>
-  <si>
     <t>닷오다</t>
   </si>
   <si>
@@ -6190,9 +6160,6 @@
     <t>맘먹다</t>
   </si>
   <si>
-    <t>맛ㄷ다</t>
-  </si>
-  <si>
     <t>맛갊다</t>
   </si>
   <si>
@@ -7138,9 +7105,6 @@
     <t>묽히다</t>
   </si>
   <si>
-    <t>뭇ㄱ다</t>
-  </si>
-  <si>
     <t>뭇기다</t>
   </si>
   <si>
@@ -8140,9 +8104,6 @@
     <t>봄뇌다</t>
   </si>
   <si>
-    <t>봇ㄱ다</t>
-  </si>
-  <si>
     <t>봇기다</t>
   </si>
   <si>
@@ -8584,9 +8545,6 @@
     <t>빌이다</t>
   </si>
   <si>
-    <t>빗ㄱ다</t>
-  </si>
-  <si>
     <t>빗가다</t>
   </si>
   <si>
@@ -9457,9 +9415,6 @@
     <t>섭하다</t>
   </si>
   <si>
-    <t>섯ㄱ다</t>
-  </si>
-  <si>
     <t>섯겯다</t>
   </si>
   <si>
@@ -10186,9 +10141,6 @@
     <t>실헤다</t>
   </si>
   <si>
-    <t>심ㄱ다</t>
-  </si>
-  <si>
     <t>심겁다</t>
   </si>
   <si>
@@ -11617,9 +11569,6 @@
     <t>엽치다</t>
   </si>
   <si>
-    <t>엿ㄱ다</t>
-  </si>
-  <si>
     <t>엿듣다</t>
   </si>
   <si>
@@ -12686,9 +12635,6 @@
   </si>
   <si>
     <t>잘살다</t>
-  </si>
-  <si>
-    <t>잠ㄱ다</t>
   </si>
   <si>
     <t>잠갈다</t>
@@ -17023,10 +16969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63A7A9B-1BF0-415D-A6FC-A780AE5F4820}">
-  <dimension ref="A1:A5344"/>
+  <dimension ref="A1:A5326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4011" workbookViewId="0">
-      <selection activeCell="E4037" sqref="E4037"/>
+    <sheetView tabSelected="1" topLeftCell="A1059" workbookViewId="0">
+      <selection activeCell="T1080" sqref="T1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43661,96 +43607,6 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="5327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5327" t="s">
-        <v>5326</v>
-      </c>
-    </row>
-    <row r="5328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5328" t="s">
-        <v>5327</v>
-      </c>
-    </row>
-    <row r="5329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5329" t="s">
-        <v>5328</v>
-      </c>
-    </row>
-    <row r="5330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5330" t="s">
-        <v>5329</v>
-      </c>
-    </row>
-    <row r="5331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5331" t="s">
-        <v>5330</v>
-      </c>
-    </row>
-    <row r="5332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5332" t="s">
-        <v>5331</v>
-      </c>
-    </row>
-    <row r="5333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5333" t="s">
-        <v>5332</v>
-      </c>
-    </row>
-    <row r="5334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5334" t="s">
-        <v>5333</v>
-      </c>
-    </row>
-    <row r="5335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5335" t="s">
-        <v>5334</v>
-      </c>
-    </row>
-    <row r="5336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5336" t="s">
-        <v>5335</v>
-      </c>
-    </row>
-    <row r="5337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5337" t="s">
-        <v>5336</v>
-      </c>
-    </row>
-    <row r="5338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5338" t="s">
-        <v>5337</v>
-      </c>
-    </row>
-    <row r="5339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5339" t="s">
-        <v>5338</v>
-      </c>
-    </row>
-    <row r="5340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5340" t="s">
-        <v>5339</v>
-      </c>
-    </row>
-    <row r="5341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5341" t="s">
-        <v>5340</v>
-      </c>
-    </row>
-    <row r="5342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5342" t="s">
-        <v>5341</v>
-      </c>
-    </row>
-    <row r="5343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5343" t="s">
-        <v>5342</v>
-      </c>
-    </row>
-    <row r="5344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5344" t="s">
-        <v>5343</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
